--- a/medicine/Enfance/Nathalie_Le_Gendre/Nathalie_Le_Gendre.xlsx
+++ b/medicine/Enfance/Nathalie_Le_Gendre/Nathalie_Le_Gendre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nathalie Le Gendre, née en 1970 à Saint-Nazaire, en Pays de la Loire, est une autrice française de science-fiction et de livres pour la jeunesse.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née en Bretagne, en 1970, Nathalie Le Gendre a longtemps hésité entre devenir comédienne, dessinatrice, pilote de courses motos. Finalement, elle choisit l'écriture. Elle publie son premier roman Dans les larmes de Gaïa, en 2003[1].
-Atteinte d'une maladie rare et invalidante, elle se définit comme « une romancière à mobilité réduite »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née en Bretagne, en 1970, Nathalie Le Gendre a longtemps hésité entre devenir comédienne, dessinatrice, pilote de courses motos. Finalement, elle choisit l'écriture. Elle publie son premier roman Dans les larmes de Gaïa, en 2003.
+Atteinte d'une maladie rare et invalidante, elle se définit comme « une romancière à mobilité réduite ».
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a reçu de nombreux prix pour ses romans, dès sa première publication, dont le grand prix de l'Imaginaire (prix attribué à des œuvres de l'imaginaire, comme la science-fiction), le prix des Incorruptibles à deux reprises consécutives, le prix Ados de la Ville de Rennes, le label Isidor, le prix Ados en Colères et le prix Ados de Deauville.
 </t>
@@ -576,8 +592,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Romans
-Dans les larmes de Gaïa, Mango, coll. « Autres mondes », 2003 ; réédition Éditions d'Avallon, 2020.
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dans les larmes de Gaïa, Mango, coll. « Autres mondes », 2003 ; réédition Éditions d'Avallon, 2020.
 Mósa Wòsa, Mango, coll. « Autres mondes », 2004 ; réédition L'Atalante, coll. Le Maedre 2015.
 Automates, Mango, coll. « Autres mondes », 2005 ; réédition Castelmore, 2018. Prix Les Imaginaires 2019-2020.
 49 302, Mango, coll. « Autres mondes », 2006.
@@ -594,9 +615,43 @@
 Piégé, éditions Oskar, coll. « Suspense », 2016.
 Seule, éditions Oskar, coll. « Suspense », 2017.
 La Reine des Aurès contre le Général Hassan, éditions Oskar, coll. « 10 jours pour changer le monde », 2018.
-Planète interdite, éditions d'Avallon, 2022.
-Nouvelles et romans courts
-« Le Langage de Ferniel », dans l'anthologie Premiers Contacts, Mango, coll. « Autres mondes », 2005.
+Planète interdite, éditions d'Avallon, 2022.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nathalie_Le_Gendre</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nathalie_Le_Gendre</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelles et romans courts</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>« Le Langage de Ferniel », dans l'anthologie Premiers Contacts, Mango, coll. « Autres mondes », 2005.
 « Elle(s) », dans l'anthologie Le Monde Selon Eve, Éditions Voy'el, 2010.
 « La Légende d'à peu près Punahilkka », dans l'anthologie Elfes et Assassins, éditions Mnémos, 2013.
 « Esclave des Mihobês », in D-lire, novembre 2013.</t>
